--- a/metrics/MAPE/average time/Neuropatía.xlsx
+++ b/metrics/MAPE/average time/Neuropatía.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01591511301927033</v>
+        <v>0.01568714105323666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01540387312590868</v>
+        <v>0.01558758514934008</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01542400039369613</v>
+        <v>0.01537743522751118</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01262962350598083</v>
+        <v>0.01258585796171962</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01266261103080567</v>
+        <v>0.01266251214613785</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01258595684638744</v>
+        <v>0.01268083387143404</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04097081456282165</v>
+        <v>0.04251087649052474</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04190027278907638</v>
+        <v>0.04335565113902551</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04634824795316145</v>
+        <v>0.04634561886654231</v>
       </c>
     </row>
   </sheetData>
